--- a/files/spawn/dom_ranking.xlsx
+++ b/files/spawn/dom_ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devs\partmaster\files\spawn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB38737E-BC62-47FE-A50B-0DC9C761A734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92048CA4-B5A3-4640-BA8A-322E5CADBC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1702,18 +1702,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1743,12 +1737,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2058,9 +2051,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="40.875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2252,98 +2242,98 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>24</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>4</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>1</v>
       </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>4</v>
       </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
         <v>88</v>
       </c>
     </row>
@@ -2537,193 +2527,193 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>383</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>29</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>42</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>23</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>8</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>7</v>
       </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>1</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6">
         <v>5</v>
       </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>477</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>28</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>6</v>
       </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>5</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>5</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7">
         <v>3</v>
       </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>50</v>
       </c>
     </row>
@@ -2917,98 +2907,98 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>508</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>23</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>12</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>8</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>2</v>
       </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>2</v>
       </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>4</v>
       </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>42</v>
       </c>
     </row>
@@ -3202,193 +3192,193 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>365</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>8</v>
       </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>4</v>
       </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>389</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>26</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>7</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>22</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>30</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>4</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
         <v>8</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <v>10</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>2</v>
       </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
         <v>32</v>
       </c>
     </row>
@@ -51555,7 +51545,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE521" xr:uid="{E8546202-7B0D-427F-95A1-83DB355E355E}">
+  <autoFilter ref="A1:AE521" xr:uid="{6F11F7C5-F9E5-4CF1-97A5-42B4599925D6}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE521">
       <sortCondition descending="1" ref="AE1:AE521"/>
     </sortState>
